--- a/biology/Zoologie/Centruroides_edwardsii/Centruroides_edwardsii.xlsx
+++ b/biology/Zoologie/Centruroides_edwardsii/Centruroides_edwardsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centruroides edwardsii est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Salvador, au Honduras, au Nicaragua, au Costa Rica et en Colombie[1].
-Elle a été introduite au Sénégal et à Cuba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Salvador, au Honduras, au Nicaragua, au Costa Rica et en Colombie.
+Elle a été introduite au Sénégal et à Cuba.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Armas, Teruel et Kovařík en 2011 mesure 100,00 mm et les femelles 77,05 mm et 88,90 mm[1]. Centruroides edwardsii mesure de 60 à 110 mm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Armas, Teruel et Kovařík en 2011 mesure 100,00 mm et les femelles 77,05 mm et 88,90 mm. Centruroides edwardsii mesure de 60 à 110 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio edwardsii par Gervais en 1843. Elle est placée en synonymie avec Centruroides margaritatus par Pocock en 1893[2]. Elle est relecée de synonymie par Armas, Teruel et Kovařík en 2011[1] qui dans le même temps placent Scorpio degeerii, Tityus ducalis, Centrurus gambiensis, Centruroides margaritatus septentrionalis et Rhopalurus danieli en synonymie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio edwardsii par Gervais en 1843. Elle est placée en synonymie avec Centruroides margaritatus par Pocock en 1893. Elle est relecée de synonymie par Armas, Teruel et Kovařík en 2011 qui dans le même temps placent Scorpio degeerii, Tityus ducalis, Centrurus gambiensis, Centruroides margaritatus septentrionalis et Rhopalurus danieli en synonymie.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Henri Milne Edwards[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Henri Milne Edwards.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gervais, 1843 : « Les principaux résultats d’un travail sur la famille des Scorpions. » Société philomathique de Paris. Extraits des procès-verbaux des séances, vol. 5, no 7, p. 129−131 (texte intégral).</t>
         </is>
